--- a/Assets/Excel/NineSquareShootStatus.xlsx
+++ b/Assets/Excel/NineSquareShootStatus.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>n_ID</t>
   </si>
@@ -114,12 +114,6 @@
     <t>n_UnlockParam</t>
   </si>
   <si>
-    <t>女主1</t>
-  </si>
-  <si>
-    <t>女主2</t>
-  </si>
-  <si>
     <t>n_WeaponName</t>
   </si>
   <si>
@@ -145,25 +139,6 @@
   </si>
   <si>
     <t>n_WeaponSFX</t>
-  </si>
-  <si>
-    <t>手槍</t>
-  </si>
-  <si>
-    <t>步槍M4A1</t>
-  </si>
-  <si>
-    <t>中型</t>
-  </si>
-  <si>
-    <t>狙擊槍</t>
-  </si>
-  <si>
-    <t>重型</t>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -602,139 +577,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="41.25" thickBot="1">
+    <row r="1" spans="1:29" ht="41.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="17.25" thickBot="1">
+    <row r="2" spans="1:29" ht="17.25" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
+      <c r="B2" s="4">
+        <v>101</v>
       </c>
       <c r="C2" s="4">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="D2" s="4">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="E2" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="4">
         <v>0.5</v>
       </c>
       <c r="H2" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2" s="4">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4">
         <v>100</v>
-      </c>
-      <c r="K2" s="4">
-        <v>5</v>
       </c>
       <c r="L2" s="4">
         <v>100</v>
@@ -746,13 +716,13 @@
         <v>100</v>
       </c>
       <c r="O2" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="P2" s="4">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="Q2" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4">
         <v>0</v>
@@ -775,7 +745,7 @@
       <c r="X2" s="4">
         <v>0</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="5">
         <v>0</v>
       </c>
       <c r="Z2" s="5">
@@ -790,26 +760,23 @@
       <c r="AC2" s="5">
         <v>0</v>
       </c>
-      <c r="AD2" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" ht="17.25" thickBot="1">
+    <row r="3" spans="1:29" ht="17.25" thickBot="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>30</v>
+      <c r="B3" s="7">
+        <v>102</v>
       </c>
       <c r="C3" s="7">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="D3" s="7">
-        <v>202</v>
-      </c>
-      <c r="E3" s="7">
         <v>100</v>
       </c>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
       <c r="F3" s="8">
         <v>0</v>
       </c>
@@ -880,9 +847,6 @@
         <v>0</v>
       </c>
       <c r="AC3" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="8">
         <v>0</v>
       </c>
     </row>
@@ -895,7 +859,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -903,148 +867,137 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="41.25" thickBot="1">
+    <row r="1" spans="1:10" ht="41.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" ht="17.25" thickBot="1">
+    <row r="2" spans="1:10" ht="17.25" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>40</v>
+      <c r="B2" s="4">
+        <v>301</v>
       </c>
       <c r="C2" s="4">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="D2" s="4">
-        <v>401</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10</v>
       </c>
       <c r="F2" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G2" s="4">
         <v>100</v>
       </c>
       <c r="H2" s="4">
-        <v>100</v>
-      </c>
-      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
         <v>0</v>
       </c>
       <c r="J2" s="5">
         <v>0</v>
       </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" thickBot="1">
+    <row r="3" spans="1:10" ht="17.25" thickBot="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>41</v>
+      <c r="B3" s="4">
+        <v>302</v>
       </c>
       <c r="C3" s="4">
-        <v>302</v>
+        <v>402</v>
       </c>
       <c r="D3" s="4">
-        <v>402</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20</v>
       </c>
       <c r="F3" s="4">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G3" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H3" s="4">
-        <v>100</v>
-      </c>
-      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
         <v>0</v>
       </c>
       <c r="J3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" ht="17.25" thickBot="1">
+    <row r="4" spans="1:10" ht="17.25" thickBot="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>43</v>
+      <c r="B4" s="4">
+        <v>303</v>
       </c>
       <c r="C4" s="4">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="D4" s="4">
-        <v>403</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>50</v>
       </c>
       <c r="F4" s="4">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="G4" s="4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H4" s="4">
-        <v>100</v>
-      </c>
-      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>